--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Wnt4-Fzd2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Wnt4-Fzd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.36676220935512</v>
+        <v>1.408675</v>
       </c>
       <c r="H2">
-        <v>1.36676220935512</v>
+        <v>4.226025</v>
       </c>
       <c r="I2">
-        <v>0.2336916034883018</v>
+        <v>0.2345535261744868</v>
       </c>
       <c r="J2">
-        <v>0.2336916034883018</v>
+        <v>0.2345535261744868</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.188394773444314</v>
+        <v>0.4403303333333333</v>
       </c>
       <c r="N2">
-        <v>0.188394773444314</v>
+        <v>1.320991</v>
       </c>
       <c r="O2">
-        <v>0.01143717506242703</v>
+        <v>0.02587852307343662</v>
       </c>
       <c r="P2">
-        <v>0.01143717506242703</v>
+        <v>0.02587852307343662</v>
       </c>
       <c r="Q2">
-        <v>0.2574908567837079</v>
+        <v>0.6202823323083333</v>
       </c>
       <c r="R2">
-        <v>0.2574908567837079</v>
+        <v>5.582540990775</v>
       </c>
       <c r="S2">
-        <v>0.00267277177971499</v>
+        <v>0.006069898839062376</v>
       </c>
       <c r="T2">
-        <v>0.00267277177971499</v>
+        <v>0.006069898839062377</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.36676220935512</v>
+        <v>1.408675</v>
       </c>
       <c r="H3">
-        <v>1.36676220935512</v>
+        <v>4.226025</v>
       </c>
       <c r="I3">
-        <v>0.2336916034883018</v>
+        <v>0.2345535261744868</v>
       </c>
       <c r="J3">
-        <v>0.2336916034883018</v>
+        <v>0.2345535261744868</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.5224159285787</v>
+        <v>15.65098733333333</v>
       </c>
       <c r="N3">
-        <v>15.5224159285787</v>
+        <v>46.952962</v>
       </c>
       <c r="O3">
-        <v>0.9423434903274308</v>
+        <v>0.9198195222247485</v>
       </c>
       <c r="P3">
-        <v>0.9423434903274308</v>
+        <v>0.9198195222247485</v>
       </c>
       <c r="Q3">
-        <v>21.21545148907333</v>
+        <v>22.04715458178333</v>
       </c>
       <c r="R3">
-        <v>21.21545148907333</v>
+        <v>198.42439123605</v>
       </c>
       <c r="S3">
-        <v>0.2202177612913803</v>
+        <v>0.2157469123819465</v>
       </c>
       <c r="T3">
-        <v>0.2202177612913803</v>
+        <v>0.2157469123819465</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.36676220935512</v>
+        <v>1.408675</v>
       </c>
       <c r="H4">
-        <v>1.36676220935512</v>
+        <v>4.226025</v>
       </c>
       <c r="I4">
-        <v>0.2336916034883018</v>
+        <v>0.2345535261744868</v>
       </c>
       <c r="J4">
-        <v>0.2336916034883018</v>
+        <v>0.2345535261744868</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.761331449863888</v>
+        <v>0.001510333333333333</v>
       </c>
       <c r="N4">
-        <v>0.761331449863888</v>
+        <v>0.004531</v>
       </c>
       <c r="O4">
-        <v>0.04621933461014217</v>
+        <v>8.876335118539137E-05</v>
       </c>
       <c r="P4">
-        <v>0.04621933461014217</v>
+        <v>8.876335118539136E-05</v>
       </c>
       <c r="Q4">
-        <v>1.040559054467504</v>
+        <v>0.002127568808333333</v>
       </c>
       <c r="R4">
-        <v>1.040559054467504</v>
+        <v>0.019148119275</v>
       </c>
       <c r="S4">
-        <v>0.01080107041720649</v>
+        <v>2.081975701559786E-05</v>
       </c>
       <c r="T4">
-        <v>0.01080107041720649</v>
+        <v>2.081975701559786E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.39090845095356</v>
+        <v>1.408675</v>
       </c>
       <c r="H5">
-        <v>1.39090845095356</v>
+        <v>4.226025</v>
       </c>
       <c r="I5">
-        <v>0.2378201738268231</v>
+        <v>0.2345535261744868</v>
       </c>
       <c r="J5">
-        <v>0.2378201738268231</v>
+        <v>0.2345535261744868</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.188394773444314</v>
+        <v>0.008111666666666666</v>
       </c>
       <c r="N5">
-        <v>0.188394773444314</v>
+        <v>0.024335</v>
       </c>
       <c r="O5">
-        <v>0.01143717506242703</v>
+        <v>0.0004767283493922972</v>
       </c>
       <c r="P5">
-        <v>0.01143717506242703</v>
+        <v>0.0004767283493922972</v>
       </c>
       <c r="Q5">
-        <v>0.2620398824991776</v>
+        <v>0.01142670204166667</v>
       </c>
       <c r="R5">
-        <v>0.2620398824991776</v>
+        <v>0.102840318375</v>
       </c>
       <c r="S5">
-        <v>0.002719990961434202</v>
+        <v>0.0001118183153773061</v>
       </c>
       <c r="T5">
-        <v>0.002719990961434202</v>
+        <v>0.0001118183153773061</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.39090845095356</v>
+        <v>1.408675</v>
       </c>
       <c r="H6">
-        <v>1.39090845095356</v>
+        <v>4.226025</v>
       </c>
       <c r="I6">
-        <v>0.2378201738268231</v>
+        <v>0.2345535261744868</v>
       </c>
       <c r="J6">
-        <v>0.2378201738268231</v>
+        <v>0.2345535261744868</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.5224159285787</v>
+        <v>0.914341</v>
       </c>
       <c r="N6">
-        <v>15.5224159285787</v>
+        <v>2.743023</v>
       </c>
       <c r="O6">
-        <v>0.9423434903274308</v>
+        <v>0.0537364630012372</v>
       </c>
       <c r="P6">
-        <v>0.9423434903274308</v>
+        <v>0.0537364630012372</v>
       </c>
       <c r="Q6">
-        <v>21.59025949427627</v>
+        <v>1.288009308175</v>
       </c>
       <c r="R6">
-        <v>21.59025949427627</v>
+        <v>11.592083773575</v>
       </c>
       <c r="S6">
-        <v>0.2241082926742448</v>
+        <v>0.01260407688108503</v>
       </c>
       <c r="T6">
-        <v>0.2241082926742448</v>
+        <v>0.01260407688108503</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.39090845095356</v>
+        <v>1.436364333333333</v>
       </c>
       <c r="H7">
-        <v>1.39090845095356</v>
+        <v>4.309093</v>
       </c>
       <c r="I7">
-        <v>0.2378201738268231</v>
+        <v>0.2391639798069812</v>
       </c>
       <c r="J7">
-        <v>0.2378201738268231</v>
+        <v>0.2391639798069812</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.761331449863888</v>
+        <v>0.4403303333333333</v>
       </c>
       <c r="N7">
-        <v>0.761331449863888</v>
+        <v>1.320991</v>
       </c>
       <c r="O7">
-        <v>0.04621933461014217</v>
+        <v>0.02587852307343662</v>
       </c>
       <c r="P7">
-        <v>0.04621933461014217</v>
+        <v>0.02587852307343662</v>
       </c>
       <c r="Q7">
-        <v>1.058942347592408</v>
+        <v>0.6324747856847778</v>
       </c>
       <c r="R7">
-        <v>1.058942347592408</v>
+        <v>5.692273071163</v>
       </c>
       <c r="S7">
-        <v>0.01099189019114411</v>
+        <v>0.006189210569769893</v>
       </c>
       <c r="T7">
-        <v>0.01099189019114411</v>
+        <v>0.006189210569769893</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,122 +903,122 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.36668277596016</v>
+        <v>1.436364333333333</v>
       </c>
       <c r="H8">
-        <v>1.36668277596016</v>
+        <v>4.309093</v>
       </c>
       <c r="I8">
-        <v>0.2336780218152707</v>
+        <v>0.2391639798069812</v>
       </c>
       <c r="J8">
-        <v>0.2336780218152707</v>
+        <v>0.2391639798069812</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.188394773444314</v>
+        <v>15.65098733333333</v>
       </c>
       <c r="N8">
-        <v>0.188394773444314</v>
+        <v>46.952962</v>
       </c>
       <c r="O8">
-        <v>0.01143717506242703</v>
+        <v>0.9198195222247485</v>
       </c>
       <c r="P8">
-        <v>0.01143717506242703</v>
+        <v>0.9198195222247485</v>
       </c>
       <c r="Q8">
-        <v>0.2574758919472605</v>
+        <v>22.48051998705178</v>
       </c>
       <c r="R8">
-        <v>0.2574758919472605</v>
+        <v>202.324679883466</v>
       </c>
       <c r="S8">
-        <v>0.002672616443742894</v>
+        <v>0.2199876976394269</v>
       </c>
       <c r="T8">
-        <v>0.002672616443742894</v>
+        <v>0.2199876976394269</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.36668277596016</v>
+        <v>1.436364333333333</v>
       </c>
       <c r="H9">
-        <v>1.36668277596016</v>
+        <v>4.309093</v>
       </c>
       <c r="I9">
-        <v>0.2336780218152707</v>
+        <v>0.2391639798069812</v>
       </c>
       <c r="J9">
-        <v>0.2336780218152707</v>
+        <v>0.2391639798069812</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>15.5224159285787</v>
+        <v>0.001510333333333333</v>
       </c>
       <c r="N9">
-        <v>15.5224159285787</v>
+        <v>0.004531</v>
       </c>
       <c r="O9">
-        <v>0.9423434903274308</v>
+        <v>8.876335118539137E-05</v>
       </c>
       <c r="P9">
-        <v>0.9423434903274308</v>
+        <v>8.876335118539136E-05</v>
       </c>
       <c r="Q9">
-        <v>21.21421849087815</v>
+        <v>0.002169388931444445</v>
       </c>
       <c r="R9">
-        <v>21.21421849087815</v>
+        <v>0.019524500383</v>
       </c>
       <c r="S9">
-        <v>0.2202049626902117</v>
+        <v>2.122899633050293E-05</v>
       </c>
       <c r="T9">
-        <v>0.2202049626902117</v>
+        <v>2.122899633050292E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.36668277596016</v>
+        <v>1.436364333333333</v>
       </c>
       <c r="H10">
-        <v>1.36668277596016</v>
+        <v>4.309093</v>
       </c>
       <c r="I10">
-        <v>0.2336780218152707</v>
+        <v>0.2391639798069812</v>
       </c>
       <c r="J10">
-        <v>0.2336780218152707</v>
+        <v>0.2391639798069812</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.761331449863888</v>
+        <v>0.008111666666666666</v>
       </c>
       <c r="N10">
-        <v>0.761331449863888</v>
+        <v>0.024335</v>
       </c>
       <c r="O10">
-        <v>0.04621933461014217</v>
+        <v>0.0004767283493922972</v>
       </c>
       <c r="P10">
-        <v>0.04621933461014217</v>
+        <v>0.0004767283493922972</v>
       </c>
       <c r="Q10">
-        <v>1.040498579325752</v>
+        <v>0.01165130868388889</v>
       </c>
       <c r="R10">
-        <v>1.040498579325752</v>
+        <v>0.104861778155</v>
       </c>
       <c r="S10">
-        <v>0.0108004426813161</v>
+        <v>0.0001140162493274749</v>
       </c>
       <c r="T10">
-        <v>0.0108004426813161</v>
+        <v>0.0001140162493274749</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.33848812498121</v>
+        <v>1.436364333333333</v>
       </c>
       <c r="H11">
-        <v>1.33848812498121</v>
+        <v>4.309093</v>
       </c>
       <c r="I11">
-        <v>0.2288572467367933</v>
+        <v>0.2391639798069812</v>
       </c>
       <c r="J11">
-        <v>0.2288572467367933</v>
+        <v>0.2391639798069812</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.188394773444314</v>
+        <v>0.914341</v>
       </c>
       <c r="N11">
-        <v>0.188394773444314</v>
+        <v>2.743023</v>
       </c>
       <c r="O11">
-        <v>0.01143717506242703</v>
+        <v>0.0537364630012372</v>
       </c>
       <c r="P11">
-        <v>0.01143717506242703</v>
+        <v>0.0537364630012372</v>
       </c>
       <c r="Q11">
-        <v>0.2521641670637397</v>
+        <v>1.313326800904333</v>
       </c>
       <c r="R11">
-        <v>0.2521641670637397</v>
+        <v>11.819941208139</v>
       </c>
       <c r="S11">
-        <v>0.002617480395233762</v>
+        <v>0.01285182635212649</v>
       </c>
       <c r="T11">
-        <v>0.002617480395233762</v>
+        <v>0.01285182635212649</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.33848812498121</v>
+        <v>1.397773</v>
       </c>
       <c r="H12">
-        <v>1.33848812498121</v>
+        <v>4.193319</v>
       </c>
       <c r="I12">
-        <v>0.2288572467367933</v>
+        <v>0.2327382724485711</v>
       </c>
       <c r="J12">
-        <v>0.2288572467367933</v>
+        <v>0.2327382724485711</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.5224159285787</v>
+        <v>0.4403303333333333</v>
       </c>
       <c r="N12">
-        <v>15.5224159285787</v>
+        <v>1.320991</v>
       </c>
       <c r="O12">
-        <v>0.9423434903274308</v>
+        <v>0.02587852307343662</v>
       </c>
       <c r="P12">
-        <v>0.9423434903274308</v>
+        <v>0.02587852307343662</v>
       </c>
       <c r="Q12">
-        <v>20.77656939142177</v>
+        <v>0.6154818510143333</v>
       </c>
       <c r="R12">
-        <v>20.77656939142177</v>
+        <v>5.539336659129</v>
       </c>
       <c r="S12">
-        <v>0.2156621366766758</v>
+        <v>0.006022922753632125</v>
       </c>
       <c r="T12">
-        <v>0.2156621366766758</v>
+        <v>0.006022922753632125</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.33848812498121</v>
+        <v>1.397773</v>
       </c>
       <c r="H13">
-        <v>1.33848812498121</v>
+        <v>4.193319</v>
       </c>
       <c r="I13">
-        <v>0.2288572467367933</v>
+        <v>0.2327382724485711</v>
       </c>
       <c r="J13">
-        <v>0.2288572467367933</v>
+        <v>0.2327382724485711</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.761331449863888</v>
+        <v>15.65098733333333</v>
       </c>
       <c r="N13">
-        <v>0.761331449863888</v>
+        <v>46.952962</v>
       </c>
       <c r="O13">
-        <v>0.04621933461014217</v>
+        <v>0.9198195222247485</v>
       </c>
       <c r="P13">
-        <v>0.04621933461014217</v>
+        <v>0.9198195222247485</v>
       </c>
       <c r="Q13">
-        <v>1.019033104817542</v>
+        <v>21.87652751787533</v>
       </c>
       <c r="R13">
-        <v>1.019033104817542</v>
+        <v>196.888747660878</v>
       </c>
       <c r="S13">
-        <v>0.01057762966488372</v>
+        <v>0.214077206567058</v>
       </c>
       <c r="T13">
-        <v>0.01057762966488372</v>
+        <v>0.214077206567058</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.385730612304905</v>
+        <v>1.397773</v>
       </c>
       <c r="H14">
-        <v>0.385730612304905</v>
+        <v>4.193319</v>
       </c>
       <c r="I14">
-        <v>0.06595295413281106</v>
+        <v>0.2327382724485711</v>
       </c>
       <c r="J14">
-        <v>0.06595295413281106</v>
+        <v>0.2327382724485711</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.188394773444314</v>
+        <v>0.001510333333333333</v>
       </c>
       <c r="N14">
-        <v>0.188394773444314</v>
+        <v>0.004531</v>
       </c>
       <c r="O14">
-        <v>0.01143717506242703</v>
+        <v>8.876335118539137E-05</v>
       </c>
       <c r="P14">
-        <v>0.01143717506242703</v>
+        <v>8.876335118539136E-05</v>
       </c>
       <c r="Q14">
-        <v>0.07266963131571909</v>
+        <v>0.002111103154333333</v>
       </c>
       <c r="R14">
-        <v>0.07266963131571909</v>
+        <v>0.018999928389</v>
       </c>
       <c r="S14">
-        <v>0.0007543154823011804</v>
+        <v>2.065862901163382E-05</v>
       </c>
       <c r="T14">
-        <v>0.0007543154823011804</v>
+        <v>2.065862901163381E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.385730612304905</v>
+        <v>1.397773</v>
       </c>
       <c r="H15">
-        <v>0.385730612304905</v>
+        <v>4.193319</v>
       </c>
       <c r="I15">
-        <v>0.06595295413281106</v>
+        <v>0.2327382724485711</v>
       </c>
       <c r="J15">
-        <v>0.06595295413281106</v>
+        <v>0.2327382724485711</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>15.5224159285787</v>
+        <v>0.008111666666666666</v>
       </c>
       <c r="N15">
-        <v>15.5224159285787</v>
+        <v>0.024335</v>
       </c>
       <c r="O15">
-        <v>0.9423434903274308</v>
+        <v>0.0004767283493922972</v>
       </c>
       <c r="P15">
-        <v>0.9423434903274308</v>
+        <v>0.0004767283493922972</v>
       </c>
       <c r="Q15">
-        <v>5.987471000582073</v>
+        <v>0.01133826865166667</v>
       </c>
       <c r="R15">
-        <v>5.987471000582073</v>
+        <v>0.102044417865</v>
       </c>
       <c r="S15">
-        <v>0.06215033699491813</v>
+        <v>0.0001109529324648221</v>
       </c>
       <c r="T15">
-        <v>0.06215033699491813</v>
+        <v>0.0001109529324648221</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,672 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.385730612304905</v>
+        <v>1.397773</v>
       </c>
       <c r="H16">
-        <v>0.385730612304905</v>
+        <v>4.193319</v>
       </c>
       <c r="I16">
-        <v>0.06595295413281106</v>
+        <v>0.2327382724485711</v>
       </c>
       <c r="J16">
-        <v>0.06595295413281106</v>
+        <v>0.2327382724485711</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.761331449863888</v>
+        <v>0.914341</v>
       </c>
       <c r="N16">
-        <v>0.761331449863888</v>
+        <v>2.743023</v>
       </c>
       <c r="O16">
-        <v>0.04621933461014217</v>
+        <v>0.0537364630012372</v>
       </c>
       <c r="P16">
-        <v>0.04621933461014217</v>
+        <v>0.0537364630012372</v>
       </c>
       <c r="Q16">
-        <v>0.2936688463229786</v>
+        <v>1.278041162593</v>
       </c>
       <c r="R16">
-        <v>0.2936688463229786</v>
+        <v>11.502370463337</v>
       </c>
       <c r="S16">
-        <v>0.003048301655591753</v>
+        <v>0.01250653156640451</v>
       </c>
       <c r="T16">
-        <v>0.003048301655591753</v>
+        <v>0.01250653156640451</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.34152</v>
+      </c>
+      <c r="H17">
+        <v>4.02456</v>
+      </c>
+      <c r="I17">
+        <v>0.2233717830114097</v>
+      </c>
+      <c r="J17">
+        <v>0.2233717830114097</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.4403303333333333</v>
+      </c>
+      <c r="N17">
+        <v>1.320991</v>
+      </c>
+      <c r="O17">
+        <v>0.02587852307343662</v>
+      </c>
+      <c r="P17">
+        <v>0.02587852307343662</v>
+      </c>
+      <c r="Q17">
+        <v>0.5907119487733333</v>
+      </c>
+      <c r="R17">
+        <v>5.31640753896</v>
+      </c>
+      <c r="S17">
+        <v>0.005780531840615444</v>
+      </c>
+      <c r="T17">
+        <v>0.005780531840615444</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.34152</v>
+      </c>
+      <c r="H18">
+        <v>4.02456</v>
+      </c>
+      <c r="I18">
+        <v>0.2233717830114097</v>
+      </c>
+      <c r="J18">
+        <v>0.2233717830114097</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>15.65098733333333</v>
+      </c>
+      <c r="N18">
+        <v>46.952962</v>
+      </c>
+      <c r="O18">
+        <v>0.9198195222247485</v>
+      </c>
+      <c r="P18">
+        <v>0.9198195222247485</v>
+      </c>
+      <c r="Q18">
+        <v>20.99611252741333</v>
+      </c>
+      <c r="R18">
+        <v>188.96501274672</v>
+      </c>
+      <c r="S18">
+        <v>0.2054617267280451</v>
+      </c>
+      <c r="T18">
+        <v>0.2054617267280451</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.34152</v>
+      </c>
+      <c r="H19">
+        <v>4.02456</v>
+      </c>
+      <c r="I19">
+        <v>0.2233717830114097</v>
+      </c>
+      <c r="J19">
+        <v>0.2233717830114097</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.001510333333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.004531</v>
+      </c>
+      <c r="O19">
+        <v>8.876335118539137E-05</v>
+      </c>
+      <c r="P19">
+        <v>8.876335118539136E-05</v>
+      </c>
+      <c r="Q19">
+        <v>0.002026142373333333</v>
+      </c>
+      <c r="R19">
+        <v>0.01823528136</v>
+      </c>
+      <c r="S19">
+        <v>1.98272280203488E-05</v>
+      </c>
+      <c r="T19">
+        <v>1.982722802034879E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.34152</v>
+      </c>
+      <c r="H20">
+        <v>4.02456</v>
+      </c>
+      <c r="I20">
+        <v>0.2233717830114097</v>
+      </c>
+      <c r="J20">
+        <v>0.2233717830114097</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.008111666666666666</v>
+      </c>
+      <c r="N20">
+        <v>0.024335</v>
+      </c>
+      <c r="O20">
+        <v>0.0004767283493922972</v>
+      </c>
+      <c r="P20">
+        <v>0.0004767283493922972</v>
+      </c>
+      <c r="Q20">
+        <v>0.01088196306666667</v>
+      </c>
+      <c r="R20">
+        <v>0.0979376676</v>
+      </c>
+      <c r="S20">
+        <v>0.0001064876614158437</v>
+      </c>
+      <c r="T20">
+        <v>0.0001064876614158437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.34152</v>
+      </c>
+      <c r="H21">
+        <v>4.02456</v>
+      </c>
+      <c r="I21">
+        <v>0.2233717830114097</v>
+      </c>
+      <c r="J21">
+        <v>0.2233717830114097</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.914341</v>
+      </c>
+      <c r="N21">
+        <v>2.743023</v>
+      </c>
+      <c r="O21">
+        <v>0.0537364630012372</v>
+      </c>
+      <c r="P21">
+        <v>0.0537364630012372</v>
+      </c>
+      <c r="Q21">
+        <v>1.22660673832</v>
+      </c>
+      <c r="R21">
+        <v>11.03946064488</v>
+      </c>
+      <c r="S21">
+        <v>0.012003209553313</v>
+      </c>
+      <c r="T21">
+        <v>0.012003209553313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.4214396666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.264319</v>
+      </c>
+      <c r="I22">
+        <v>0.07017243855855113</v>
+      </c>
+      <c r="J22">
+        <v>0.07017243855855113</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.4403303333333333</v>
+      </c>
+      <c r="N22">
+        <v>1.320991</v>
+      </c>
+      <c r="O22">
+        <v>0.02587852307343662</v>
+      </c>
+      <c r="P22">
+        <v>0.02587852307343662</v>
+      </c>
+      <c r="Q22">
+        <v>0.1855726689032222</v>
+      </c>
+      <c r="R22">
+        <v>1.670154020129</v>
+      </c>
+      <c r="S22">
+        <v>0.001815959070356779</v>
+      </c>
+      <c r="T22">
+        <v>0.001815959070356779</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.4214396666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.264319</v>
+      </c>
+      <c r="I23">
+        <v>0.07017243855855113</v>
+      </c>
+      <c r="J23">
+        <v>0.07017243855855113</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>15.65098733333333</v>
+      </c>
+      <c r="N23">
+        <v>46.952962</v>
+      </c>
+      <c r="O23">
+        <v>0.9198195222247485</v>
+      </c>
+      <c r="P23">
+        <v>0.9198195222247485</v>
+      </c>
+      <c r="Q23">
+        <v>6.595946884764222</v>
+      </c>
+      <c r="R23">
+        <v>59.36352196287801</v>
+      </c>
+      <c r="S23">
+        <v>0.06454597890827202</v>
+      </c>
+      <c r="T23">
+        <v>0.06454597890827202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.4214396666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.264319</v>
+      </c>
+      <c r="I24">
+        <v>0.07017243855855113</v>
+      </c>
+      <c r="J24">
+        <v>0.07017243855855113</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.001510333333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.004531</v>
+      </c>
+      <c r="O24">
+        <v>8.876335118539137E-05</v>
+      </c>
+      <c r="P24">
+        <v>8.876335118539136E-05</v>
+      </c>
+      <c r="Q24">
+        <v>0.0006365143765555556</v>
+      </c>
+      <c r="R24">
+        <v>0.005728629389000001</v>
+      </c>
+      <c r="S24">
+        <v>6.228740807307972E-06</v>
+      </c>
+      <c r="T24">
+        <v>6.228740807307972E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.4214396666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.264319</v>
+      </c>
+      <c r="I25">
+        <v>0.07017243855855113</v>
+      </c>
+      <c r="J25">
+        <v>0.07017243855855113</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.008111666666666666</v>
+      </c>
+      <c r="N25">
+        <v>0.024335</v>
+      </c>
+      <c r="O25">
+        <v>0.0004767283493922972</v>
+      </c>
+      <c r="P25">
+        <v>0.0004767283493922972</v>
+      </c>
+      <c r="Q25">
+        <v>0.003418578096111111</v>
+      </c>
+      <c r="R25">
+        <v>0.030767202865</v>
+      </c>
+      <c r="S25">
+        <v>3.345319080685047E-05</v>
+      </c>
+      <c r="T25">
+        <v>3.345319080685047E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.4214396666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.264319</v>
+      </c>
+      <c r="I26">
+        <v>0.07017243855855113</v>
+      </c>
+      <c r="J26">
+        <v>0.07017243855855113</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.914341</v>
+      </c>
+      <c r="N26">
+        <v>2.743023</v>
+      </c>
+      <c r="O26">
+        <v>0.0537364630012372</v>
+      </c>
+      <c r="P26">
+        <v>0.0537364630012372</v>
+      </c>
+      <c r="Q26">
+        <v>0.3853395662596667</v>
+      </c>
+      <c r="R26">
+        <v>3.468056096337</v>
+      </c>
+      <c r="S26">
+        <v>0.003770818648308174</v>
+      </c>
+      <c r="T26">
+        <v>0.003770818648308174</v>
       </c>
     </row>
   </sheetData>
